--- a/Civilworks cost/RADP Preparations/Kishoregonj/Final/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Final/Projecttion_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -998,12 +998,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1033,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1045,6 +1051,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9241,13 +9251,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -9285,1272 +9307,1339 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>407.31</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>407.31</v>
+      </c>
+      <c r="L2" s="6">
+        <v>407.31</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>94</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F2">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="G2">
-        <v>40.94</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>40.94</v>
-      </c>
-      <c r="K2">
-        <v>40.94</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5">
+        <v>15.82</v>
+      </c>
+      <c r="G3" s="5">
+        <v>472.96222940669998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>89.862823587272999</v>
+      </c>
+      <c r="K3" s="5">
+        <v>472.96222940669998</v>
+      </c>
+      <c r="L3" s="6">
+        <v>383.09940581942698</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F3">
-        <v>1.22</v>
-      </c>
-      <c r="G3">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="K3">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4">
-        <v>1.55</v>
-      </c>
-      <c r="G4">
-        <v>19.18</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>19.18</v>
-      </c>
-      <c r="L4">
-        <v>19.18</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F4" s="5">
+        <v>9.4939999999999998</v>
+      </c>
+      <c r="G4" s="5">
+        <v>329.10739257350991</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>329.10739257350991</v>
+      </c>
+      <c r="L4" s="6">
+        <v>329.10739257350991</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>5.625</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>309.8</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>309.8</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>309.8</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>489.17598947869988</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>195.67039579147999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>489.17598947869988</v>
+      </c>
+      <c r="L6" s="6">
+        <v>293.50559368722003</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7.1130000000000004</v>
+      </c>
+      <c r="G7" s="5">
+        <v>374.96375491013998</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>93.74093872753501</v>
+      </c>
+      <c r="K7" s="5">
+        <v>374.96375491013998</v>
+      </c>
+      <c r="L7" s="6">
+        <v>281.22281618260502</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10.86</v>
+      </c>
+      <c r="G8" s="5">
+        <v>557.63</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>278.815</v>
+      </c>
+      <c r="K8" s="5">
+        <v>557.63</v>
+      </c>
+      <c r="L8" s="6">
+        <v>278.815</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>93</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7.91</v>
+      </c>
+      <c r="G9" s="5">
+        <v>187.0327983</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>187.0327983</v>
+      </c>
+      <c r="L9" s="6">
+        <v>187.0327983</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>321.39906300000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>154.27155024000001</v>
+      </c>
+      <c r="K10" s="5">
+        <v>321.39906300000001</v>
+      </c>
+      <c r="L10" s="6">
+        <v>167.12751276</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>119</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>195.21688979663</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>29.282533469494499</v>
+      </c>
+      <c r="K11" s="5">
+        <v>195.21688979663</v>
+      </c>
+      <c r="L11" s="6">
+        <v>165.9343563271355</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>84</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>159.86056307000001</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>159.86056307000001</v>
+      </c>
+      <c r="L12" s="6">
+        <v>159.86056307000001</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>144</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>156.62</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>156.62</v>
+      </c>
+      <c r="L13" s="6">
+        <v>156.62</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>45.95</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>45.95</v>
-      </c>
-      <c r="L6">
-        <v>45.95</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="F14" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G14" s="5">
+        <v>424.00323129999998</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>275.602100345</v>
+      </c>
+      <c r="K14" s="5">
+        <v>424.00323129999998</v>
+      </c>
+      <c r="L14" s="6">
+        <v>148.40113095500001</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>145</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>148</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>148</v>
+      </c>
+      <c r="L15" s="6">
+        <v>148</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>131</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>405.93708967677009</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>263.85910828990058</v>
+      </c>
+      <c r="K16" s="5">
+        <v>405.93708967677009</v>
+      </c>
+      <c r="L16" s="6">
+        <v>142.0779813868696</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>92</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="G17" s="5">
+        <v>141.51596699999999</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>141.51596699999999</v>
+      </c>
+      <c r="L17" s="6">
+        <v>141.51596699999999</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>147</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>140.87</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>140.87</v>
+      </c>
+      <c r="L18" s="6">
+        <v>140.87</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="5">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>44.79</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>44.79</v>
-      </c>
-      <c r="L7">
-        <v>44.79</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8">
+      <c r="F19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>133.96</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>133.96</v>
+      </c>
+      <c r="L19" s="6">
+        <v>133.96</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>149</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="5">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5">
+        <v>347.64</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="J20" s="5">
+        <v>59.098799999999997</v>
+      </c>
+      <c r="K20" s="5">
+        <v>187.72559999999999</v>
+      </c>
+      <c r="L20" s="6">
+        <v>128.6268</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>107</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>120.5563642764902</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>120.5563642764902</v>
+      </c>
+      <c r="L21" s="6">
+        <v>120.5563642764902</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="5">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="5">
+        <v>11.75</v>
+      </c>
+      <c r="G22" s="5">
+        <v>274.06</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>175.39840000000001</v>
+      </c>
+      <c r="K22" s="5">
+        <v>274.06</v>
+      </c>
+      <c r="L22" s="6">
+        <v>98.661599999999993</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>SUM(L2:L22)</f>
+        <v>4322.105282338257</v>
+      </c>
+      <c r="O22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>49</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>123.81</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>123.81</v>
-      </c>
-      <c r="K8">
-        <v>123.81</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>137.35</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>89.277500000000003</v>
+      </c>
+      <c r="L23" s="6">
+        <v>89.277500000000003</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>106</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>156.68207290000001</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>70.506932805000005</v>
+      </c>
+      <c r="K24" s="5">
+        <v>156.68207290000001</v>
+      </c>
+      <c r="L24" s="6">
+        <v>86.175140095000003</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9">
-        <v>2.98</v>
-      </c>
-      <c r="G9">
-        <v>31.957608910000001</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>31.957608910000001</v>
-      </c>
-      <c r="K9">
-        <v>31.957608910000001</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10">
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="G10">
-        <v>93.435120429999998</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>93.435120429999998</v>
-      </c>
-      <c r="K10">
-        <v>93.435120429999998</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11">
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="G11">
-        <v>52.172189199999998</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>52.172189199999998</v>
-      </c>
-      <c r="K11">
-        <v>52.172189199999998</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12">
-        <v>0.46</v>
-      </c>
-      <c r="G12">
-        <v>16.201039130000002</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>16.201039130000002</v>
-      </c>
-      <c r="K12">
-        <v>16.201039130000002</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13">
-        <v>2.79</v>
-      </c>
-      <c r="G13">
-        <v>68.859880000000004</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>68.859880000000004</v>
-      </c>
-      <c r="K13">
-        <v>68.859880000000004</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14">
-        <v>0.315</v>
-      </c>
-      <c r="G14">
-        <v>14.81094876</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>14.81094876</v>
-      </c>
-      <c r="K14">
-        <v>14.81094876</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>180.84</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>180.84</v>
-      </c>
-      <c r="K15">
-        <v>180.84</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16">
-        <v>10.382999999999999</v>
-      </c>
-      <c r="G16">
-        <v>236.03</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>236.03</v>
-      </c>
-      <c r="K16">
-        <v>236.03</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="K17">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>97.3</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>97.3</v>
-      </c>
-      <c r="K18">
-        <v>97.3</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>97.3</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>97.3</v>
-      </c>
-      <c r="K19">
-        <v>97.3</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>254.37</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>254.37</v>
-      </c>
-      <c r="K20">
-        <v>254.37</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21">
-        <v>6.4710000000000001</v>
-      </c>
-      <c r="G21">
-        <v>121.63</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>121.63</v>
-      </c>
-      <c r="K21">
-        <v>121.63</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>143.38999999999999</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>143.38999999999999</v>
-      </c>
-      <c r="K22">
-        <v>143.38999999999999</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>190.22</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>190.22</v>
-      </c>
-      <c r="K23">
-        <v>190.22</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24">
-        <v>1.6970000000000001</v>
-      </c>
-      <c r="G24">
-        <v>35.281961160000002</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>35.281961160000002</v>
-      </c>
-      <c r="K24">
-        <v>35.281961160000002</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
         <v>227</v>
       </c>
       <c r="F25">
-        <v>8.2999999999999963E-2</v>
+        <v>2.9</v>
       </c>
       <c r="G25">
-        <v>4.0969036680000004</v>
+        <v>84.879744000000002</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4.0969036680000004</v>
+        <v>13.58075904</v>
       </c>
       <c r="K25">
-        <v>4.0969036680000004</v>
+        <v>84.879744000000002</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>71.298984959999999</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F26">
-        <v>0.58999999999999986</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>8.7692750109999995</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>57.901499999999999</v>
       </c>
       <c r="K26">
-        <v>8.7692750109999995</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="L26">
-        <v>8.7692750109999995</v>
+        <v>70.768499999999989</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C27">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
       </c>
       <c r="F27">
-        <v>7.4940000000000007</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G27">
-        <v>156.82266490000001</v>
+        <v>485.98</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>156.82266490000001</v>
+        <v>417.94279999999998</v>
       </c>
       <c r="K27">
-        <v>156.82266490000001</v>
+        <v>485.98</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>68.037199999999984</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F28">
-        <v>1.498999999999999</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>28.94815608</v>
+        <v>189.52974883928999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>28.94815608</v>
+        <v>123.19433674553849</v>
       </c>
       <c r="K28">
-        <v>28.94815608</v>
+        <v>189.52974883928999</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>66.335412093751501</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>227</v>
       </c>
       <c r="F29">
-        <v>0.85099999999999909</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>17.898320479999999</v>
+        <v>55.74</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>17.898320479999999</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>17.898320479999999</v>
+        <v>55.74</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>55.74</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>265.58731551</v>
+      </c>
+      <c r="H30">
+        <v>0.8</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>212.46985240800001</v>
+      </c>
+      <c r="K30">
+        <v>265.58731551</v>
+      </c>
+      <c r="L30">
+        <v>53.117463101999988</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
         <v>227</v>
       </c>
-      <c r="F30">
-        <v>12.214</v>
-      </c>
-      <c r="G30">
-        <v>325.54000000000002</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>325.54000000000002</v>
-      </c>
-      <c r="K30">
-        <v>325.54000000000002</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>228</v>
-      </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>227.88187738937</v>
+        <v>45.95</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>227.88187738937</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>227.88187738937</v>
+        <v>45.95</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>45.95</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
         <v>227</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>41.55</v>
+        <v>44.79</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>41.55</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>41.55</v>
+        <v>44.79</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>44.79</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -10558,40 +10647,40 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F33">
-        <v>3.43</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>69.7</v>
+        <v>295.52623265905999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>69.7</v>
+        <v>251.197297760201</v>
       </c>
       <c r="K33">
-        <v>69.7</v>
+        <v>295.52623265905999</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>44.328934898859018</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -10599,40 +10688,40 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
         <v>227</v>
       </c>
       <c r="F34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>23.7</v>
+        <v>70.98</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>23.7</v>
+        <v>28.391999999999999</v>
       </c>
       <c r="K34">
-        <v>23.7</v>
+        <v>70.98</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>42.588000000000001</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -10640,40 +10729,40 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>10.039999999999999</v>
+        <v>41.88</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>10.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>10.039999999999999</v>
+        <v>41.88</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>41.88</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -10681,40 +10770,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F36">
-        <v>7.07</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>356.51</v>
+        <v>267.88</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>356.51</v>
+        <v>227.69800000000001</v>
       </c>
       <c r="K36">
-        <v>356.51</v>
+        <v>267.88</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>40.182000000000023</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -10722,40 +10811,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F37">
-        <v>3.56</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>120.16</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>120.16</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>120.16</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -10763,40 +10852,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F38">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>20.549423050000001</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -10804,40 +10893,40 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F39">
-        <v>1.615</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>26.078112170000001</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="H39">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2.16</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>56.328722287200009</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>56.328722287200009</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>36.661991779399997</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -10845,40 +10934,40 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
         <v>227</v>
       </c>
       <c r="F40">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="G40">
-        <v>46.887345910000001</v>
+        <v>54.403540110000002</v>
       </c>
       <c r="H40">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I40">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>18.754938364000001</v>
+        <v>19.585274439599999</v>
       </c>
       <c r="K40">
-        <v>18.754938364000001</v>
+        <v>54.403540110000002</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>34.818265670400002</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -10886,40 +10975,40 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F41">
-        <v>6.8540000000000001</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>130.11837389999999</v>
+        <v>161.42945938</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>130.11837389999999</v>
+        <v>129.143567504</v>
       </c>
       <c r="K41">
-        <v>130.11837389999999</v>
+        <v>161.42945938</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>32.285891875999987</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -10927,40 +11016,40 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
         <v>227</v>
       </c>
       <c r="F42">
-        <v>6.1</v>
+        <v>4.51</v>
       </c>
       <c r="G42">
-        <v>120.33133599999999</v>
+        <v>107.42083638742</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>120.33133599999999</v>
+        <v>85.93666910993602</v>
       </c>
       <c r="K42">
-        <v>120.33133599999999</v>
+        <v>107.42083638742</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>21.484167277483991</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -10968,40 +11057,40 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
         <v>227</v>
       </c>
       <c r="F43">
-        <v>5.7</v>
+        <v>1.55</v>
       </c>
       <c r="G43">
-        <v>424.00323129999998</v>
+        <v>19.18</v>
       </c>
       <c r="H43">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>275.602100345</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>424.00323129999998</v>
+        <v>19.18</v>
       </c>
       <c r="L43">
-        <v>148.40113095500001</v>
+        <v>19.18</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -11009,40 +11098,40 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
         <v>227</v>
       </c>
       <c r="F44">
-        <v>10.86</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>197.63842210000001</v>
+        <v>18.14921786</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>18.14921786</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>18.14921786</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -11050,40 +11139,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F45">
-        <v>3.879</v>
+        <v>15</v>
       </c>
       <c r="G45">
-        <v>35.33</v>
+        <v>118.56733669862</v>
       </c>
       <c r="H45">
-        <v>0.08</v>
+        <v>0.86</v>
       </c>
       <c r="I45">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>2.8264</v>
+        <v>101.9679095608132</v>
       </c>
       <c r="K45">
-        <v>7.0659999999999998</v>
+        <v>118.56733669862</v>
       </c>
       <c r="L45">
-        <v>4.2395999999999994</v>
+        <v>16.599427137806799</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -11091,40 +11180,40 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>55.74</v>
+        <v>274.49</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>260.76549999999997</v>
       </c>
       <c r="K46">
-        <v>55.74</v>
+        <v>274.49</v>
       </c>
       <c r="L46">
-        <v>55.74</v>
+        <v>13.724500000000029</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -11132,16 +11221,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
         <v>228</v>
@@ -11150,22 +11239,22 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>210.83</v>
+        <v>263.7</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>210.83</v>
+        <v>250.51499999999999</v>
       </c>
       <c r="K47">
-        <v>210.83</v>
+        <v>263.7</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>13.185</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -11173,40 +11262,40 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G48">
-        <v>176.64</v>
+        <v>11.9046562</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>176.64</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>176.64</v>
+        <v>11.9046562</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>11.9046562</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -11214,16 +11303,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
         <v>228</v>
@@ -11232,22 +11321,22 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>66.64</v>
+        <v>227.06035419159991</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>66.64</v>
+        <v>215.70733648201991</v>
       </c>
       <c r="K49">
-        <v>66.64</v>
+        <v>227.06035419159991</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>11.35301770958</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -11255,16 +11344,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
         <v>228</v>
@@ -11273,22 +11362,22 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>241.26</v>
+        <v>224.08</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>241.26</v>
+        <v>212.876</v>
       </c>
       <c r="K50">
-        <v>241.26</v>
+        <v>224.08</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>11.20400000000001</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -11296,16 +11385,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
         <v>228</v>
@@ -11314,22 +11403,22 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>137.35</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I51">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>31.477765590000001</v>
       </c>
       <c r="K51">
-        <v>89.277500000000003</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="L51">
-        <v>89.277500000000003</v>
+        <v>10.492588530000001</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -11337,16 +11426,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
         <v>228</v>
@@ -11355,22 +11444,22 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>128.66999999999999</v>
+        <v>196.52</v>
       </c>
       <c r="H52">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>57.901499999999999</v>
+        <v>186.69399999999999</v>
       </c>
       <c r="K52">
-        <v>128.66999999999999</v>
+        <v>196.52</v>
       </c>
       <c r="L52">
-        <v>70.768499999999989</v>
+        <v>9.8260000000000218</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -11378,40 +11467,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C53">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>227</v>
       </c>
       <c r="F53">
-        <v>11.75</v>
+        <v>0.58999999999999986</v>
       </c>
       <c r="G53">
-        <v>274.06</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="H53">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53">
-        <v>175.39840000000001</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>274.06</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="L53">
-        <v>98.661599999999993</v>
+        <v>8.7692750109999995</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -11419,40 +11508,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
         <v>227</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="G54">
-        <v>343.88</v>
+        <v>28.577189027549998</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J54">
-        <v>343.88</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>343.88</v>
+        <v>8.5731567082649995</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>8.5731567082649995</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -11460,40 +11549,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="G55">
-        <v>274.49</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="H55">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55">
-        <v>260.76549999999997</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>274.49</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="L55">
-        <v>13.724500000000029</v>
+        <v>8.1389467849999999</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -11501,40 +11590,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
         <v>227</v>
       </c>
       <c r="F56">
-        <v>10.86</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>557.63</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="H56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
-        <v>278.815</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>557.63</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="L56">
-        <v>278.815</v>
+        <v>5.8813662830000002</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -11542,40 +11631,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.439</v>
       </c>
       <c r="G57">
-        <v>253.89347740292999</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
-        <v>253.89347740292999</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>253.89347740292999</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>4.4591922139999998</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -11583,40 +11672,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>3.879</v>
       </c>
       <c r="G58">
-        <v>277.03648500092999</v>
+        <v>35.33</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J58">
-        <v>277.03648500092999</v>
+        <v>2.8264</v>
       </c>
       <c r="K58">
-        <v>277.03648500092999</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>4.2395999999999994</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -11624,40 +11713,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
         <v>227</v>
       </c>
       <c r="F59">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="G59">
-        <v>18.396996112979998</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2.4463474449999998</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -11665,25 +11754,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
         <v>227</v>
       </c>
       <c r="F60">
-        <v>0.6</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="G60">
-        <v>4.3979713727399998</v>
+        <v>40.94</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -11692,10 +11781,10 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <v>4.3979713727399998</v>
+        <v>40.94</v>
       </c>
       <c r="K60">
-        <v>4.3979713727399998</v>
+        <v>40.94</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -11706,25 +11795,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
         <v>227</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="G61">
-        <v>99.257006847780005</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -11733,10 +11822,10 @@
         <v>1</v>
       </c>
       <c r="J61">
-        <v>99.257006847780005</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="K61">
-        <v>99.257006847780005</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -11747,25 +11836,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F62">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>110.69451403344</v>
+        <v>123.81</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -11774,10 +11863,10 @@
         <v>1</v>
       </c>
       <c r="J62">
-        <v>110.69451403344</v>
+        <v>123.81</v>
       </c>
       <c r="K62">
-        <v>110.69451403344</v>
+        <v>123.81</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -11788,25 +11877,25 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C63">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
         <v>227</v>
       </c>
       <c r="F63">
-        <v>0.36699999999999999</v>
+        <v>2.98</v>
       </c>
       <c r="G63">
-        <v>167.9839919838</v>
+        <v>31.957608910000001</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -11815,10 +11904,10 @@
         <v>1</v>
       </c>
       <c r="J63">
-        <v>167.9839919838</v>
+        <v>31.957608910000001</v>
       </c>
       <c r="K63">
-        <v>167.9839919838</v>
+        <v>31.957608910000001</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -11829,40 +11918,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>4.4749999999999996</v>
       </c>
       <c r="G64">
-        <v>224.08</v>
+        <v>93.435120429999998</v>
       </c>
       <c r="H64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64">
-        <v>212.876</v>
+        <v>93.435120429999998</v>
       </c>
       <c r="K64">
-        <v>224.08</v>
+        <v>93.435120429999998</v>
       </c>
       <c r="L64">
-        <v>11.20400000000001</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -11870,40 +11959,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="G65">
-        <v>196.52</v>
+        <v>52.172189199999998</v>
       </c>
       <c r="H65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65">
-        <v>186.69399999999999</v>
+        <v>52.172189199999998</v>
       </c>
       <c r="K65">
-        <v>196.52</v>
+        <v>52.172189199999998</v>
       </c>
       <c r="L65">
-        <v>9.8260000000000218</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -11911,40 +12000,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
         <v>227</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>0.46</v>
       </c>
       <c r="G66">
-        <v>489.17598947869988</v>
+        <v>16.201039130000002</v>
       </c>
       <c r="H66">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
-        <v>195.67039579147999</v>
+        <v>16.201039130000002</v>
       </c>
       <c r="K66">
-        <v>489.17598947869988</v>
+        <v>16.201039130000002</v>
       </c>
       <c r="L66">
-        <v>293.50559368722003</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -11952,40 +12041,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
         <v>227</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2.79</v>
       </c>
       <c r="G67">
-        <v>70.98</v>
+        <v>68.859880000000004</v>
       </c>
       <c r="H67">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>28.391999999999999</v>
+        <v>68.859880000000004</v>
       </c>
       <c r="K67">
-        <v>70.98</v>
+        <v>68.859880000000004</v>
       </c>
       <c r="L67">
-        <v>42.588000000000001</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -11993,40 +12082,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.315</v>
       </c>
       <c r="G68">
-        <v>263.7</v>
+        <v>14.81094876</v>
       </c>
       <c r="H68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
-        <v>250.51499999999999</v>
+        <v>14.81094876</v>
       </c>
       <c r="K68">
-        <v>263.7</v>
+        <v>14.81094876</v>
       </c>
       <c r="L68">
-        <v>13.185</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -12034,40 +12123,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F69">
-        <v>16.899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>485.98</v>
+        <v>180.84</v>
       </c>
       <c r="H69">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69">
-        <v>417.94279999999998</v>
+        <v>180.84</v>
       </c>
       <c r="K69">
-        <v>485.98</v>
+        <v>180.84</v>
       </c>
       <c r="L69">
-        <v>68.037199999999984</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -12075,40 +12164,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C70">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E70" t="s">
         <v>227</v>
       </c>
       <c r="F70">
-        <v>0.5</v>
+        <v>10.382999999999999</v>
       </c>
       <c r="G70">
-        <v>133.96</v>
+        <v>236.03</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>236.03</v>
       </c>
       <c r="K70">
-        <v>133.96</v>
+        <v>236.03</v>
       </c>
       <c r="L70">
-        <v>133.96</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -12116,37 +12205,37 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>166.9</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -12157,25 +12246,25 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>616.91999999999996</v>
+        <v>97.3</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -12184,10 +12273,10 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <v>616.91999999999996</v>
+        <v>97.3</v>
       </c>
       <c r="K72">
-        <v>616.91999999999996</v>
+        <v>97.3</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -12198,16 +12287,16 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
         <v>228</v>
@@ -12216,22 +12305,22 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>267.88</v>
+        <v>97.3</v>
       </c>
       <c r="H73">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>227.69800000000001</v>
+        <v>97.3</v>
       </c>
       <c r="K73">
-        <v>267.88</v>
+        <v>97.3</v>
       </c>
       <c r="L73">
-        <v>40.182000000000023</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -12239,25 +12328,25 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="E74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>343.32</v>
+        <v>254.37</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -12266,10 +12355,10 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <v>343.32</v>
+        <v>254.37</v>
       </c>
       <c r="K74">
-        <v>343.32</v>
+        <v>254.37</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -12280,25 +12369,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C75">
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
         <v>227</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="G75">
-        <v>167.97</v>
+        <v>121.63</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -12307,10 +12396,10 @@
         <v>1</v>
       </c>
       <c r="J75">
-        <v>167.97</v>
+        <v>121.63</v>
       </c>
       <c r="K75">
-        <v>167.97</v>
+        <v>121.63</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -12321,25 +12410,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>348.66</v>
+        <v>143.38999999999999</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -12348,10 +12437,10 @@
         <v>1</v>
       </c>
       <c r="J76">
-        <v>348.66</v>
+        <v>143.38999999999999</v>
       </c>
       <c r="K76">
-        <v>348.66</v>
+        <v>143.38999999999999</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -12362,16 +12451,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -12380,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>217.53240973000001</v>
+        <v>190.22</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -12389,10 +12478,10 @@
         <v>1</v>
       </c>
       <c r="J77">
-        <v>217.53240973000001</v>
+        <v>190.22</v>
       </c>
       <c r="K77">
-        <v>217.53240973000001</v>
+        <v>190.22</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -12403,25 +12492,25 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="G78">
-        <v>35.48865979</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -12430,10 +12519,10 @@
         <v>1</v>
       </c>
       <c r="J78">
-        <v>35.48865979</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="K78">
-        <v>35.48865979</v>
+        <v>35.281961160000002</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -12444,25 +12533,25 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>8.2999999999999963E-2</v>
       </c>
       <c r="G79">
-        <v>35.48865979</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -12471,10 +12560,10 @@
         <v>1</v>
       </c>
       <c r="J79">
-        <v>35.48865979</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="K79">
-        <v>35.48865979</v>
+        <v>4.0969036680000004</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -12485,25 +12574,25 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>7.4940000000000007</v>
       </c>
       <c r="G80">
-        <v>35.48865979</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -12512,10 +12601,10 @@
         <v>1</v>
       </c>
       <c r="J80">
-        <v>35.48865979</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="K80">
-        <v>35.48865979</v>
+        <v>156.82266490000001</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -12526,25 +12615,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>1.498999999999999</v>
       </c>
       <c r="G81">
-        <v>35.48865979</v>
+        <v>28.94815608</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -12553,10 +12642,10 @@
         <v>1</v>
       </c>
       <c r="J81">
-        <v>35.48865979</v>
+        <v>28.94815608</v>
       </c>
       <c r="K81">
-        <v>35.48865979</v>
+        <v>28.94815608</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -12567,25 +12656,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.85099999999999909</v>
       </c>
       <c r="G82">
-        <v>35.48865979</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -12594,10 +12683,10 @@
         <v>1</v>
       </c>
       <c r="J82">
-        <v>35.48865979</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="K82">
-        <v>35.48865979</v>
+        <v>17.898320479999999</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -12608,25 +12697,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C83">
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
         <v>227</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>12.214</v>
       </c>
       <c r="G83">
-        <v>460.54</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -12635,10 +12724,10 @@
         <v>1</v>
       </c>
       <c r="J83">
-        <v>460.54</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="K83">
-        <v>460.54</v>
+        <v>325.54000000000002</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -12649,25 +12738,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>89.5</v>
+        <v>227.88187738937</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -12676,10 +12765,10 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <v>89.5</v>
+        <v>227.88187738937</v>
       </c>
       <c r="K84">
-        <v>89.5</v>
+        <v>227.88187738937</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -12690,25 +12779,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G85">
-        <v>274.47000000000003</v>
+        <v>41.55</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -12717,10 +12806,10 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>274.47000000000003</v>
+        <v>41.55</v>
       </c>
       <c r="K85">
-        <v>274.47000000000003</v>
+        <v>41.55</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -12731,40 +12820,40 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>3.43</v>
       </c>
       <c r="G86">
-        <v>159.86056307000001</v>
+        <v>69.7</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="K86">
-        <v>159.86056307000001</v>
+        <v>69.7</v>
       </c>
       <c r="L86">
-        <v>159.86056307000001</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -12772,40 +12861,40 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G87">
-        <v>161.42945938</v>
+        <v>23.7</v>
       </c>
       <c r="H87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87">
-        <v>129.143567504</v>
+        <v>23.7</v>
       </c>
       <c r="K87">
-        <v>161.42945938</v>
+        <v>23.7</v>
       </c>
       <c r="L87">
-        <v>32.285891875999987</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -12813,25 +12902,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G88">
-        <v>186.82053396000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -12840,10 +12929,10 @@
         <v>1</v>
       </c>
       <c r="J88">
-        <v>186.82053396000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="K88">
-        <v>186.82053396000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -12854,40 +12943,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="E89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>7.07</v>
       </c>
       <c r="G89">
-        <v>265.58731551</v>
+        <v>356.51</v>
       </c>
       <c r="H89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>212.46985240800001</v>
+        <v>356.51</v>
       </c>
       <c r="K89">
-        <v>265.58731551</v>
+        <v>356.51</v>
       </c>
       <c r="L89">
-        <v>53.117463101999988</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -12895,37 +12984,37 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C90">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
         <v>227</v>
       </c>
       <c r="F90">
-        <v>4.28</v>
+        <v>3.56</v>
       </c>
       <c r="G90">
-        <v>101.201059</v>
+        <v>120.16</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>120.16</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>120.16</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -12936,37 +13025,37 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C91">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
         <v>227</v>
       </c>
       <c r="F91">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="G91">
-        <v>35.704111949999998</v>
+        <v>20.549423050000001</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>35.704111949999998</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>35.704111949999998</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -12977,37 +13066,37 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C92">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
         <v>227</v>
       </c>
       <c r="F92">
-        <v>0.72499999999999998</v>
+        <v>1.615</v>
       </c>
       <c r="G92">
-        <v>17.142702759999999</v>
+        <v>26.078112170000001</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2.16</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2.16</v>
       </c>
       <c r="J92">
-        <v>17.142702759999999</v>
+        <v>56.328722287200009</v>
       </c>
       <c r="K92">
-        <v>17.142702759999999</v>
+        <v>56.328722287200009</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -13018,37 +13107,37 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C93">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
         <v>227</v>
       </c>
       <c r="F93">
-        <v>2.5150000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="G93">
-        <v>59.467444999999998</v>
+        <v>46.887345910000001</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J93">
-        <v>59.467444999999998</v>
+        <v>18.754938364000001</v>
       </c>
       <c r="K93">
-        <v>59.467444999999998</v>
+        <v>18.754938364000001</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -13059,40 +13148,40 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C94">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s">
         <v>227</v>
       </c>
       <c r="F94">
-        <v>5.9850000000000003</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="G94">
-        <v>141.51596699999999</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="K94">
-        <v>141.51596699999999</v>
+        <v>130.11837389999999</v>
       </c>
       <c r="L94">
-        <v>141.51596699999999</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -13100,40 +13189,40 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C95">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
         <v>227</v>
       </c>
       <c r="F95">
-        <v>7.91</v>
+        <v>6.1</v>
       </c>
       <c r="G95">
-        <v>187.0327983</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="K95">
-        <v>187.0327983</v>
+        <v>120.33133599999999</v>
       </c>
       <c r="L95">
-        <v>187.0327983</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -13141,40 +13230,40 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C96">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="E96" t="s">
         <v>227</v>
       </c>
       <c r="F96">
-        <v>15.82</v>
+        <v>10.86</v>
       </c>
       <c r="G96">
-        <v>472.96222940669998</v>
+        <v>197.63842210000001</v>
       </c>
       <c r="H96">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>89.862823587272999</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>472.96222940669998</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>383.09940581942698</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -13182,40 +13271,40 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F97">
-        <v>7.1130000000000004</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>374.96375491013998</v>
+        <v>210.83</v>
       </c>
       <c r="H97">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97">
-        <v>93.74093872753501</v>
+        <v>210.83</v>
       </c>
       <c r="K97">
-        <v>374.96375491013998</v>
+        <v>210.83</v>
       </c>
       <c r="L97">
-        <v>281.22281618260502</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -13223,16 +13312,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C98">
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="E98" t="s">
         <v>228</v>
@@ -13241,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>136.31</v>
+        <v>176.64</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -13250,10 +13339,10 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>136.31</v>
+        <v>176.64</v>
       </c>
       <c r="K98">
-        <v>136.31</v>
+        <v>176.64</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -13264,16 +13353,16 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="E99" t="s">
         <v>228</v>
@@ -13282,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>193.69</v>
+        <v>66.64</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -13291,10 +13380,10 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>193.69</v>
+        <v>66.64</v>
       </c>
       <c r="K99">
-        <v>193.69</v>
+        <v>66.64</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -13305,16 +13394,16 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C100">
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
         <v>228</v>
@@ -13323,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>185.03</v>
+        <v>241.26</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -13332,10 +13421,10 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>185.03</v>
+        <v>241.26</v>
       </c>
       <c r="K100">
-        <v>185.03</v>
+        <v>241.26</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -13346,25 +13435,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>136.66</v>
+        <v>343.88</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -13373,10 +13462,10 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>136.66</v>
+        <v>343.88</v>
       </c>
       <c r="K101">
-        <v>136.66</v>
+        <v>343.88</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -13387,16 +13476,16 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="E102" t="s">
         <v>228</v>
@@ -13405,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>41.018582780000003</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -13414,10 +13503,10 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>41.018582780000003</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="K102">
-        <v>41.018582780000003</v>
+        <v>253.89347740292999</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -13428,16 +13517,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="E103" t="s">
         <v>228</v>
@@ -13446,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>42.79909541</v>
+        <v>277.03648500092999</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -13455,10 +13544,10 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>42.79909541</v>
+        <v>277.03648500092999</v>
       </c>
       <c r="K103">
-        <v>42.79909541</v>
+        <v>277.03648500092999</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -13469,37 +13558,37 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="G104">
-        <v>41.970354120000003</v>
+        <v>18.396996112979998</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>41.970354120000003</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>41.970354120000003</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -13510,40 +13599,40 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="E105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G105">
-        <v>41.970354120000003</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="H105">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>31.477765590000001</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="K105">
-        <v>41.970354120000003</v>
+        <v>4.3979713727399998</v>
       </c>
       <c r="L105">
-        <v>10.492588530000001</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -13551,37 +13640,37 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F106">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G106">
-        <v>334.27</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="H106">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>190.53389999999999</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="K106">
-        <v>190.53389999999999</v>
+        <v>99.257006847780005</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -13592,40 +13681,40 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="G107">
-        <v>321.39906300000001</v>
+        <v>110.69451403344</v>
       </c>
       <c r="H107">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107">
-        <v>154.27155024000001</v>
+        <v>110.69451403344</v>
       </c>
       <c r="K107">
-        <v>321.39906300000001</v>
+        <v>110.69451403344</v>
       </c>
       <c r="L107">
-        <v>167.12751276</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -13633,40 +13722,40 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="E108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="G108">
-        <v>156.68207290000001</v>
+        <v>167.9839919838</v>
       </c>
       <c r="H108">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108">
-        <v>70.506932805000005</v>
+        <v>167.9839919838</v>
       </c>
       <c r="K108">
-        <v>156.68207290000001</v>
+        <v>167.9839919838</v>
       </c>
       <c r="L108">
-        <v>86.175140095000003</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -13674,40 +13763,40 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
         <v>228</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>120.5563642764902</v>
+        <v>166.9</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>120.5563642764902</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>120.5563642764902</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -13715,40 +13804,40 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C110">
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E110" t="s">
         <v>227</v>
       </c>
       <c r="F110">
-        <v>9.4939999999999998</v>
+        <v>9</v>
       </c>
       <c r="G110">
-        <v>329.10739257350991</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="K110">
-        <v>329.10739257350991</v>
+        <v>616.91999999999996</v>
       </c>
       <c r="L110">
-        <v>329.10739257350991</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -13756,37 +13845,37 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C111">
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="E111" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F111">
-        <v>10.462999999999999</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>235.99241562002001</v>
+        <v>343.32</v>
       </c>
       <c r="H111">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>188.79393249601611</v>
+        <v>343.32</v>
       </c>
       <c r="K111">
-        <v>188.79393249601611</v>
+        <v>343.32</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -13797,40 +13886,40 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="E112" t="s">
         <v>227</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>18.14921786</v>
+        <v>167.97</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>167.97</v>
       </c>
       <c r="K112">
-        <v>18.14921786</v>
+        <v>167.97</v>
       </c>
       <c r="L112">
-        <v>18.14921786</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -13838,25 +13927,25 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="E113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F113">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>28.0678625</v>
+        <v>348.66</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -13865,10 +13954,10 @@
         <v>1</v>
       </c>
       <c r="J113">
-        <v>28.0678625</v>
+        <v>348.66</v>
       </c>
       <c r="K113">
-        <v>28.0678625</v>
+        <v>348.66</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -13879,40 +13968,40 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>5.8813662830000002</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="K114">
-        <v>5.8813662830000002</v>
+        <v>217.53240973000001</v>
       </c>
       <c r="L114">
-        <v>5.8813662830000002</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -13920,40 +14009,40 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F115">
-        <v>0.58399999999999996</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>8.1389467849999999</v>
+        <v>35.48865979</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>35.48865979</v>
       </c>
       <c r="K115">
-        <v>8.1389467849999999</v>
+        <v>35.48865979</v>
       </c>
       <c r="L115">
-        <v>8.1389467849999999</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -13961,40 +14050,40 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F116">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>84.879744000000002</v>
+        <v>35.48865979</v>
       </c>
       <c r="H116">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116">
-        <v>13.58075904</v>
+        <v>35.48865979</v>
       </c>
       <c r="K116">
-        <v>84.879744000000002</v>
+        <v>35.48865979</v>
       </c>
       <c r="L116">
-        <v>71.298984959999999</v>
+        <v>0</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -14002,40 +14091,40 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F117">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>11.9046562</v>
+        <v>35.48865979</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>35.48865979</v>
       </c>
       <c r="K117">
-        <v>11.9046562</v>
+        <v>35.48865979</v>
       </c>
       <c r="L117">
-        <v>11.9046562</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -14043,40 +14132,40 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F118">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>2.4463474449999998</v>
+        <v>35.48865979</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>35.48865979</v>
       </c>
       <c r="K118">
-        <v>2.4463474449999998</v>
+        <v>35.48865979</v>
       </c>
       <c r="L118">
-        <v>2.4463474449999998</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -14084,25 +14173,25 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F119">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>14.607284999999999</v>
+        <v>35.48865979</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -14111,10 +14200,10 @@
         <v>1</v>
       </c>
       <c r="J119">
-        <v>14.607284999999999</v>
+        <v>35.48865979</v>
       </c>
       <c r="K119">
-        <v>14.607284999999999</v>
+        <v>35.48865979</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -14125,40 +14214,40 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E120" t="s">
         <v>227</v>
       </c>
       <c r="F120">
-        <v>0.439</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>4.4591922139999998</v>
+        <v>460.54</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>460.54</v>
       </c>
       <c r="K120">
-        <v>4.4591922139999998</v>
+        <v>460.54</v>
       </c>
       <c r="L120">
-        <v>4.4591922139999998</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -14166,40 +14255,40 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="E121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>195.21688979663</v>
+        <v>89.5</v>
       </c>
       <c r="H121">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121">
-        <v>29.282533469494499</v>
+        <v>89.5</v>
       </c>
       <c r="K121">
-        <v>195.21688979663</v>
+        <v>89.5</v>
       </c>
       <c r="L121">
-        <v>165.9343563271355</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -14207,40 +14296,40 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="E122" t="s">
         <v>228</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G122">
-        <v>36.661991779399997</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="K122">
-        <v>36.661991779399997</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="L122">
-        <v>36.661991779399997</v>
+        <v>0</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -14248,16 +14337,16 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="E123" t="s">
         <v>228</v>
@@ -14266,22 +14355,22 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>36.661991779399997</v>
+        <v>186.82053396000001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>186.82053396000001</v>
       </c>
       <c r="K123">
-        <v>36.661991779399997</v>
+        <v>186.82053396000001</v>
       </c>
       <c r="L123">
-        <v>36.661991779399997</v>
+        <v>0</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -14289,40 +14378,40 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="E124" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>4.28</v>
       </c>
       <c r="G124">
-        <v>36.661991779399997</v>
+        <v>101.201059</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>36.661991779399997</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>36.661991779399997</v>
+        <v>0</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -14330,40 +14419,40 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="E125" t="s">
         <v>227</v>
       </c>
       <c r="F125">
-        <v>4.51</v>
+        <v>1.51</v>
       </c>
       <c r="G125">
-        <v>107.42083638742</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="H125">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125">
-        <v>85.93666910993602</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="K125">
-        <v>107.42083638742</v>
+        <v>35.704111949999998</v>
       </c>
       <c r="L125">
-        <v>21.484167277483991</v>
+        <v>0</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -14371,40 +14460,40 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E126" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G126">
-        <v>295.52623265905999</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="H126">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>251.197297760201</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="K126">
-        <v>295.52623265905999</v>
+        <v>17.142702759999999</v>
       </c>
       <c r="L126">
-        <v>44.328934898859018</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -14412,40 +14501,40 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B127" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="E127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="G127">
-        <v>227.06035419159991</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="H127">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>215.70733648201991</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="K127">
-        <v>227.06035419159991</v>
+        <v>59.467444999999998</v>
       </c>
       <c r="L127">
-        <v>11.35301770958</v>
+        <v>0</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -14453,40 +14542,40 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F128">
-        <v>1.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>28.577189027549998</v>
+        <v>136.31</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>136.31</v>
       </c>
       <c r="K128">
-        <v>8.5731567082649995</v>
+        <v>136.31</v>
       </c>
       <c r="L128">
-        <v>8.5731567082649995</v>
+        <v>0</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -14494,25 +14583,25 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F129">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>3.8603672257600001</v>
+        <v>193.69</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -14521,10 +14610,10 @@
         <v>1</v>
       </c>
       <c r="J129">
-        <v>3.8603672257600001</v>
+        <v>193.69</v>
       </c>
       <c r="K129">
-        <v>3.8603672257600001</v>
+        <v>193.69</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -14535,16 +14624,16 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E130" t="s">
         <v>228</v>
@@ -14553,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>38.929323272960012</v>
+        <v>185.03</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -14562,10 +14651,10 @@
         <v>1</v>
       </c>
       <c r="J130">
-        <v>38.929323272960012</v>
+        <v>185.03</v>
       </c>
       <c r="K130">
-        <v>38.929323272960012</v>
+        <v>185.03</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -14576,25 +14665,25 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E131" t="s">
         <v>228</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>62.861978238559992</v>
+        <v>136.66</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -14603,10 +14692,10 @@
         <v>1</v>
       </c>
       <c r="J131">
-        <v>62.861978238559992</v>
+        <v>136.66</v>
       </c>
       <c r="K131">
-        <v>62.861978238559992</v>
+        <v>136.66</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -14617,25 +14706,25 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="E132" t="s">
         <v>228</v>
       </c>
       <c r="F132">
-        <v>19.843</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>1149.1962001493</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -14644,10 +14733,10 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>1149.1962001493</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="K132">
-        <v>1149.1962001493</v>
+        <v>41.018582780000003</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -14658,16 +14747,16 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="E133" t="s">
         <v>228</v>
@@ -14676,22 +14765,22 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>405.93708967677009</v>
+        <v>42.79909541</v>
       </c>
       <c r="H133">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133">
-        <v>263.85910828990058</v>
+        <v>42.79909541</v>
       </c>
       <c r="K133">
-        <v>405.93708967677009</v>
+        <v>42.79909541</v>
       </c>
       <c r="L133">
-        <v>142.0779813868696</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -14699,16 +14788,16 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="E134" t="s">
         <v>228</v>
@@ -14717,19 +14806,19 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>320.03459359999999</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="H134">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>281.63044236799999</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="K134">
-        <v>281.63044236799999</v>
+        <v>41.970354120000003</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -14740,40 +14829,40 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B135" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E135" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F135">
-        <v>1.65</v>
+        <v>36</v>
       </c>
       <c r="G135">
-        <v>54.403540110000002</v>
+        <v>334.27</v>
       </c>
       <c r="H135">
-        <v>0.36</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J135">
-        <v>19.585274439599999</v>
+        <v>190.53389999999999</v>
       </c>
       <c r="K135">
-        <v>54.403540110000002</v>
+        <v>190.53389999999999</v>
       </c>
       <c r="L135">
-        <v>34.818265670400002</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -14781,37 +14870,37 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>10.462999999999999</v>
       </c>
       <c r="G136">
-        <v>346.4138345175399</v>
+        <v>235.99241562002001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>188.79393249601611</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>188.79393249601611</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -14822,37 +14911,37 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B137" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E137" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G137">
-        <v>288.07948569393011</v>
+        <v>28.0678625</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>28.0678625</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>28.0678625</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -14863,40 +14952,40 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B138" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="G138">
-        <v>189.52974883928999</v>
+        <v>14.607284999999999</v>
       </c>
       <c r="H138">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138">
-        <v>123.19433674553849</v>
+        <v>14.607284999999999</v>
       </c>
       <c r="K138">
-        <v>189.52974883928999</v>
+        <v>14.607284999999999</v>
       </c>
       <c r="L138">
-        <v>66.335412093751501</v>
+        <v>0</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -14904,37 +14993,37 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G139">
-        <v>41.822123349999998</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>3.8603672257600001</v>
       </c>
       <c r="L139">
         <v>0</v>
@@ -14945,40 +15034,40 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B140" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="E140" t="s">
         <v>228</v>
       </c>
       <c r="F140">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>118.56733669862</v>
+        <v>38.929323272960012</v>
       </c>
       <c r="H140">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140">
-        <v>101.9679095608132</v>
+        <v>38.929323272960012</v>
       </c>
       <c r="K140">
-        <v>118.56733669862</v>
+        <v>38.929323272960012</v>
       </c>
       <c r="L140">
-        <v>16.599427137806799</v>
+        <v>0</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -14986,37 +15075,37 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B141" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="E141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F141">
-        <v>0.54</v>
+        <v>4</v>
       </c>
       <c r="G141">
-        <v>22.7160982732</v>
+        <v>62.861978238559992</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>62.861978238559992</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>62.861978238559992</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -15027,37 +15116,37 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C142">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F142">
-        <v>3.96</v>
+        <v>19.843</v>
       </c>
       <c r="G142">
-        <v>71.526410010000006</v>
+        <v>1149.1962001493</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1149.1962001493</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1149.1962001493</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -15068,37 +15157,37 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C143">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F143">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>12.72235877</v>
+        <v>320.03459359999999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>281.63044236799999</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>281.63044236799999</v>
       </c>
       <c r="L143">
         <v>0</v>
@@ -15109,25 +15198,25 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E144" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F144">
-        <v>1.1399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>16.387823999999998</v>
+        <v>346.4138345175399</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -15150,25 +15239,25 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F145">
-        <v>15.5</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>367.318307</v>
+        <v>288.07948569393011</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -15191,16 +15280,16 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E146" t="s">
         <v>228</v>
@@ -15209,22 +15298,22 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>156.62</v>
+        <v>41.822123349999998</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>156.62</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>156.62</v>
+        <v>0</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -15232,40 +15321,40 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B147" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="G147">
-        <v>148</v>
+        <v>22.7160982732</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -15273,40 +15362,40 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B148" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E148" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>3.96</v>
       </c>
       <c r="G148">
-        <v>41.88</v>
+        <v>71.526410010000006</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>41.88</v>
+        <v>0</v>
       </c>
       <c r="L148">
-        <v>41.88</v>
+        <v>0</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -15314,40 +15403,40 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B149" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="G149">
-        <v>140.87</v>
+        <v>12.72235877</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>140.87</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>140.87</v>
+        <v>0</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -15355,40 +15444,40 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B150" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E150" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G150">
-        <v>407.31</v>
+        <v>16.387823999999998</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150">
-        <v>407.31</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>407.31</v>
+        <v>0</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -15396,46 +15485,49 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B151" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C151">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E151" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F151">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="G151">
-        <v>347.64</v>
+        <v>367.318307</v>
       </c>
       <c r="H151">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>59.098799999999997</v>
+        <v>0</v>
       </c>
       <c r="K151">
-        <v>187.72559999999999</v>
+        <v>0</v>
       </c>
       <c r="L151">
-        <v>128.6268</v>
+        <v>0</v>
       </c>
       <c r="M151">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M151">
+    <sortCondition descending="1" ref="L2:L151"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17160,7 +17252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
